--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.06.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.06.xlsx
@@ -46,201 +46,204 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בוקר אור. </t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>כמה זמן לוקח לכם בשביל לשחרר ילד בן חמש?</t>
+  </si>
+  <si>
+    <t>שמי דוק אני הרופא שלו בוא...</t>
+  </si>
+  <si>
+    <t>נעים מאד אני גילעד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נעים מאד. </t>
+  </si>
+  <si>
+    <t>בוא נשב גילעד בוא נשב, אני אסביר לך מה קורה.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>אא,</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני הבנתי שיואב הרגיש קצת רע בימים האחרונים. </t>
+  </si>
+  <si>
+    <t>זה באמת שום דבר... עדיף לי שהוא ...</t>
+  </si>
+  <si>
+    <t>בוודאי.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא, בסדר. אני אקח אותו הביתה הוא ינוח הוא... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא אני בטוח שהוא ירגיש יותר טוב. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם אתם צריכים לתת לו איזשהו אינפוזיה או איזשהו משהו או איזשהו נוזלים אז אפשר לעשות את זה מהר אני </t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t>אני פשוט הייתי רוצה לשחרר אותו כמה שיותר מכאן. כמה שיותר מהר מכאן.</t>
+  </si>
+  <si>
+    <t>(לא נשמע)</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גם גם אנחנו נשמח לשחרר אותו כמה שיותר מהר. </t>
+  </si>
+  <si>
+    <t>ו...(לא נשמע)</t>
+  </si>
+  <si>
+    <t>(לא נשמע) כאילו..</t>
+  </si>
+  <si>
+    <t>בהחלט, בהחלט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבל לא לפני שאנחנו נעשה את כל הבדיקות וניתן לו את הטיפול... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני מבין שהוא הרגיש מאד רע בימים האחרונים. </t>
+  </si>
+  <si>
+    <t>אנחנו, הוא עבר סדרת בדיקות.</t>
+  </si>
+  <si>
+    <t>ילדים בן חמש זה ... תרבית של חיידקים בגיל הזה בסדר.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא מה הוא ד... א אא הקיא קצת והיה לו חולשות וטיפה... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר זה קורה. זה קרה מיליון פעם בעבר וזה יקרה מיליון פעם בעתיד. </t>
+  </si>
+  <si>
+    <t>אתה יודע מה יש ליואב באמת?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>מה יש ליואב?</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש ליואב אמא היסטרית זה מה שיש לו. שמכריחה אותי לרוץ איתו, </t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קח למיון כאשר הוא חטף איזה משהו ויראלי או... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תראה אנחנו כבר הוא עבר סדרת בדיקות, אנחנו בדקנו אותו </t>
+  </si>
+  <si>
+    <t>ונמצא בבדיקה הראשונה שיש לו רמת סוכר בדם מאד גבוהה. הרבה מעבר ל... לרמה הרגילה.</t>
+  </si>
+  <si>
+    <t>רמת סוכר מאד גבוהה?</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>נכון. הגלוקוז שלו בדם היה מאד גבוה ה...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא היה לפני יומיים באיזשהו מסיבה שהיה שמה מעמיסים אותם בסוכריות קילוגרם. </t>
+  </si>
+  <si>
+    <t>אני מתאר לעצמי שזה שזה קשור לזה וקשור...</t>
+  </si>
+  <si>
+    <t>לא בהכרח קשור לאיזשהו ספציפי אבל הבדיקות ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לאחר מכן לאחר מכן המשכנו עם סדרת בדיקות ומצאנו שבעצם הבן שלך הובחן בסכרת נעורים. סכרת סוג אחד. </t>
+  </si>
+  <si>
+    <t>זו מחלה ש... זו מחלה ש... שהרבה אנשים שחולים בה..</t>
+  </si>
+  <si>
     <t>r/o</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בוקר אור. </t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>כמה זמן לוקח לכם בשביל לשחרר ילד בן חמש?</t>
-  </si>
-  <si>
-    <t>שמי דוק אני הרופא שלו בוא...</t>
-  </si>
-  <si>
-    <t>נעים מאד אני גילעד.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נעים מאד. </t>
-  </si>
-  <si>
-    <t>בוא נשב גילעד בוא נשב, אני אסביר לך מה קורה.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>אא,</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני הבנתי שיואב הרגיש קצת רע בימים האחרונים. </t>
-  </si>
-  <si>
-    <t>זה באמת שום דבר... עדיף לי שהוא ...</t>
-  </si>
-  <si>
-    <t>בוודאי.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא, בסדר. אני אקח אותו הביתה הוא ינוח הוא... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא אני בטוח שהוא ירגיש יותר טוב. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם אתם צריכים לתת לו איזשהו אינפוזיה או איזשהו משהו או איזשהו נוזלים אז אפשר לעשות את זה מהר אני </t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t>אני פשוט הייתי רוצה לשחרר אותו כמה שיותר מכאן. כמה שיותר מהר מכאן.</t>
-  </si>
-  <si>
-    <t>(לא נשמע)</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גם גם אנחנו נשמח לשחרר אותו כמה שיותר מהר. </t>
-  </si>
-  <si>
-    <t>ו...(לא נשמע)</t>
-  </si>
-  <si>
-    <t>(לא נשמע) כאילו..</t>
-  </si>
-  <si>
-    <t>בהחלט, בהחלט</t>
+    <t>מה שמך?</t>
+  </si>
+  <si>
+    <t>דוק. אני דוקטור דוק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוקיי. דוקטור דוק </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סליחה אבל הבחנתם את מה? מי? </t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">את יואב שיש לו סכרת נעורים ממה מ... </t>
+  </si>
+  <si>
+    <t>מבדיקה אחת?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>לא. מסדרה של בדיקות. הגלוק...</t>
+  </si>
+  <si>
+    <t>... מכמה בדיקות.</t>
+  </si>
+  <si>
+    <t>נכון.</t>
+  </si>
+  <si>
+    <t>אז תעשו את הבדיקה הזאת עוד פעם.</t>
+  </si>
+  <si>
+    <t>תראה,</t>
   </si>
   <si>
     <t>trans</t>
   </si>
   <si>
-    <t xml:space="preserve">אבל לא לפני שאנחנו נעשה את כל הבדיקות וניתן לו את הטיפול... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני מבין שהוא הרגיש מאד רע בימים האחרונים. </t>
-  </si>
-  <si>
-    <t>אנחנו, הוא עבר סדרת בדיקות.</t>
-  </si>
-  <si>
-    <t>ילדים בן חמש זה ... תרבית של חיידקים בגיל הזה בסדר.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא מה הוא ד... א אא הקיא קצת והיה לו חולשות וטיפה... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר זה קורה. זה קרה מיליון פעם בעבר וזה יקרה מיליון פעם בעתיד. </t>
-  </si>
-  <si>
-    <t>אתה יודע מה יש ליואב באמת?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>מה יש ליואב?</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש ליואב אמא היסטרית זה מה שיש לו. שמכריחה אותי לרוץ איתו, </t>
-  </si>
-  <si>
-    <t>crit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קח למיון כאשר הוא חטף איזה משהו ויראלי או... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">תראה אנחנו כבר הוא עבר סדרת בדיקות, אנחנו בדקנו אותו </t>
-  </si>
-  <si>
-    <t>ונמצא בבדיקה הראשונה שיש לו רמת סוכר בדם מאד גבוהה. הרבה מעבר ל... לרמה הרגילה.</t>
-  </si>
-  <si>
-    <t>רמת סוכר מאד גבוהה?</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>נכון. הגלוקוז שלו בדם היה מאד גבוה ה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא היה לפני יומיים באיזשהו מסיבה שהיה שמה מעמיסים אותם בסוכריות קילוגרם. </t>
-  </si>
-  <si>
-    <t>אני מתאר לעצמי שזה שזה קשור לזה וקשור...</t>
-  </si>
-  <si>
-    <t>לא בהכרח קשור לאיזשהו ספציפי אבל הבדיקות ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לאחר מכן לאחר מכן המשכנו עם סדרת בדיקות ומצאנו שבעצם הבן שלך הובחן בסכרת נעורים. סכרת סוג אחד. </t>
-  </si>
-  <si>
-    <t>זו מחלה ש... זו מחלה ש... שהרבה אנשים שחולים בה..</t>
-  </si>
-  <si>
-    <t>מה שמך?</t>
-  </si>
-  <si>
-    <t>דוק. אני דוקטור דוק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוקיי. דוקטור דוק </t>
-  </si>
-  <si>
-    <t xml:space="preserve">סליחה אבל הבחנתם את מה? מי? </t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">את יואב שיש לו סכרת נעורים ממה מ... </t>
-  </si>
-  <si>
-    <t>מבדיקה אחת?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>לא. מסדרה של בדיקות. הגלוק...</t>
-  </si>
-  <si>
-    <t>... מכמה בדיקות.</t>
-  </si>
-  <si>
-    <t>נכון.</t>
-  </si>
-  <si>
-    <t>אז תעשו את הבדיקה הזאת עוד פעם.</t>
-  </si>
-  <si>
-    <t>תראה,</t>
-  </si>
-  <si>
     <t>לא לא לא לא לא.</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>מישהו בכיר ממך ראה את הבדיקה הזאת?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
   </si>
   <si>
     <t xml:space="preserve">כן. בהחלט. במחלקה בהחלט. אנחנו עובדים בצוות במחלקה. </t>
@@ -822,21 +822,21 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -867,12 +867,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -886,41 +886,41 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -928,24 +928,24 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -956,24 +956,24 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1026,52 +1026,52 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1082,66 +1082,66 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1180,24 +1180,24 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1208,38 +1208,38 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1250,38 +1250,38 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1292,27 +1292,27 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1334,24 +1334,24 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
         <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1362,35 +1362,35 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -1404,24 +1404,24 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
         <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1446,24 +1446,24 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
         <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>69</v>
@@ -1477,13 +1477,13 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1491,7 +1491,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1505,13 +1505,13 @@
         <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1519,7 +1519,7 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1533,24 +1533,24 @@
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1558,27 +1558,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1642,24 +1642,24 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
         <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1670,69 +1670,69 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1740,24 +1740,24 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
         <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -1768,24 +1768,24 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1813,13 +1813,13 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1827,7 +1827,7 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1841,13 +1841,13 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1855,7 +1855,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1869,13 +1869,13 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1883,13 +1883,13 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1897,13 +1897,13 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1911,24 +1911,24 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1942,10 +1942,10 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1953,10 +1953,10 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1967,13 +1967,13 @@
         <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1984,7 +1984,7 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1995,13 +1995,13 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2009,7 +2009,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2020,16 +2020,16 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2037,7 +2037,7 @@
         <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2051,13 +2051,13 @@
         <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2079,7 +2079,7 @@
         <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2093,13 +2093,13 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2118,16 +2118,16 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2174,16 +2174,16 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2219,10 +2219,10 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2236,10 +2236,10 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2275,7 +2275,7 @@
         <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2289,13 +2289,13 @@
         <v>129</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2306,10 +2306,10 @@
         <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2320,10 +2320,10 @@
         <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2373,7 +2373,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2387,13 +2387,13 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2401,10 +2401,10 @@
         <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2415,13 +2415,13 @@
         <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2457,7 +2457,7 @@
         <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -2471,13 +2471,13 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2485,13 +2485,13 @@
         <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
